--- a/Jogos_do_Dia/2023-01-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
         <v>1.02</v>
@@ -704,7 +704,7 @@
         <v>3.05</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE2" t="n">
         <v>1.29</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
         <v>1.02</v>
@@ -766,7 +766,7 @@
         <v>1.57</v>
       </c>
       <c r="N3" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G4" t="n">
         <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -924,7 +924,7 @@
         <v>4.55</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE4" t="n">
         <v>1.3</v>
@@ -968,7 +968,7 @@
         <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -986,7 +986,7 @@
         <v>1.9</v>
       </c>
       <c r="N5" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1025,13 +1025,13 @@
         <v>3.52</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="I7" t="n">
         <v>1.01</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
         <v>1.01</v>
@@ -1313,10 +1313,10 @@
         <v>3.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N8" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1355,28 +1355,28 @@
         <v>2.71</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1423,10 +1423,10 @@
         <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="N9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1465,28 +1465,28 @@
         <v>2.94</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>3.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="N10" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1560,28 +1560,28 @@
         <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
         <v>0.63</v>
       </c>
       <c r="X10" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="Y10" t="n">
         <v>1.68</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD10" t="n">
         <v>1.4</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="n">
         <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I11" t="n">
         <v>1.06</v>
@@ -1643,10 +1643,10 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N11" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -1685,13 +1685,13 @@
         <v>3.15</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7.94</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>6.45</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="I12" t="n">
         <v>1.01</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I13" t="n">
         <v>1.01</v>
@@ -1863,10 +1863,10 @@
         <v>4.95</v>
       </c>
       <c r="M13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="N13" t="n">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="I14" t="n">
         <v>1.01</v>
@@ -1973,10 +1973,10 @@
         <v>4.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="N14" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="G17" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I17" t="n">
         <v>1.02</v>
@@ -2303,10 +2303,10 @@
         <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
         <v>1.17</v>
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
         <v>2.7</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
         <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="I19" t="n">
         <v>1.05</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="G20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="I20" t="n">
         <v>1.03</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2794,10 +2794,10 @@
         <v>1.83</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF21" t="n">
         <v>1.55</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="G22" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2904,10 +2904,10 @@
         <v>2.78</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF22" t="n">
         <v>1.65</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="G23" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
         <v>1.04</v>
@@ -2963,10 +2963,10 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -3014,7 +3014,7 @@
         <v>3.01</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE23" t="n">
         <v>1.43</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3.1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="N24" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="O24" t="n">
         <v>1.42</v>
@@ -3124,7 +3124,7 @@
         <v>2.05</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE24" t="n">
         <v>1.43</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
         <v>1.05</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G27" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I27" t="n">
         <v>1.05</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
         <v>1.07</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I29" t="n">
         <v>1.07</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="G30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.15</v>
       </c>
       <c r="I30" t="n">
         <v>1.08</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>1.08</v>
@@ -3843,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="N31" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="G32" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
         <v>1.1</v>
@@ -3953,10 +3953,10 @@
         <v>2.3</v>
       </c>
       <c r="M32" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="N32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O32" t="n">
         <v>1.62</v>
@@ -4004,7 +4004,7 @@
         <v>3.02</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE32" t="n">
         <v>1.57</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H33" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="I33" t="n">
         <v>1.02</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="G34" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="I34" t="n">
         <v>1.03</v>
@@ -4200,10 +4200,10 @@
         <v>1.53</v>
       </c>
       <c r="V34" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="W34" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="X34" t="n">
         <v>1.71</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H35" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
         <v>1.06</v>
@@ -4283,10 +4283,10 @@
         <v>3.1</v>
       </c>
       <c r="M35" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="N35" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="O35" t="n">
         <v>1.44</v>
@@ -4372,28 +4372,28 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="G36" t="n">
         <v>3.2</v>
       </c>
       <c r="H36" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="M36" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="N36" t="n">
         <v>1.68</v>
@@ -4411,13 +4411,13 @@
         <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V36" t="n">
         <v>0.57</v>
@@ -4438,25 +4438,25 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="37">
@@ -4485,10 +4485,10 @@
         <v>1.83</v>
       </c>
       <c r="G37" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
         <v>1.06</v>
@@ -4503,10 +4503,10 @@
         <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
@@ -4545,28 +4545,28 @@
         <v>3.58</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="38">
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="G38" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I38" t="n">
         <v>1.09</v>
@@ -4613,7 +4613,7 @@
         <v>2.7</v>
       </c>
       <c r="M38" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N38" t="n">
         <v>1.53</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H39" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="I39" t="n">
         <v>1.04</v>
@@ -4723,10 +4723,10 @@
         <v>4.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="N39" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="O39" t="n">
         <v>1.35</v>
@@ -4765,28 +4765,28 @@
         <v>3.66</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="40">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G40" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H40" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="I40" t="n">
         <v>1.04</v>
@@ -4833,10 +4833,10 @@
         <v>3.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="N40" t="n">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -4875,13 +4875,13 @@
         <v>3.52</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD40" t="n">
         <v>1.3</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.09</v>
+        <v>2.16</v>
       </c>
       <c r="G41" t="n">
         <v>2.75</v>
       </c>
       <c r="H41" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I41" t="n">
         <v>1.07</v>
@@ -4985,25 +4985,25 @@
         <v>3.05</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="I42" t="n">
         <v>1.06</v>
@@ -5095,28 +5095,28 @@
         <v>2.81</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="43">
@@ -5148,7 +5148,7 @@
         <v>3.5</v>
       </c>
       <c r="H43" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
         <v>1.03</v>
@@ -5214,7 +5214,7 @@
         <v>2.63</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE43" t="n">
         <v>1.33</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="G44" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -5315,13 +5315,13 @@
         <v>2.53</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB44" t="n">
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="I45" t="n">
         <v>1.12</v>
@@ -5383,10 +5383,10 @@
         <v>2.4</v>
       </c>
       <c r="M45" t="n">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="N45" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="O45" t="n">
         <v>1.62</v>
@@ -5434,13 +5434,13 @@
         <v>2.1</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE45" t="n">
         <v>1.9</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG45" t="n">
         <v>0</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="G46" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I46" t="n">
         <v>1.09</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="G47" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="I47" t="n">
         <v>1.06</v>
@@ -5603,10 +5603,10 @@
         <v>3.2</v>
       </c>
       <c r="M47" t="n">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="N47" t="n">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="O47" t="n">
         <v>1.44</v>
@@ -5654,16 +5654,16 @@
         <v>1.3</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE47" t="n">
         <v>1.83</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH47" t="n">
         <v>0</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H48" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
         <v>1.02</v>
@@ -5740,10 +5740,10 @@
         <v>2.35</v>
       </c>
       <c r="V48" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="W48" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="X48" t="n">
         <v>1.98</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G49" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I49" t="n">
         <v>1.08</v>
@@ -5823,10 +5823,10 @@
         <v>2.7</v>
       </c>
       <c r="M49" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="N49" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O49" t="n">
         <v>1.5</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="G50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>1.03</v>
@@ -5960,10 +5960,10 @@
         <v>1.49</v>
       </c>
       <c r="V50" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="W50" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="X50" t="n">
         <v>1.73</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="G51" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H51" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>1.05</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.6</v>
+        <v>5.25</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="I52" t="n">
         <v>1.03</v>
@@ -6195,13 +6195,13 @@
         <v>3.37</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AD52" t="n">
         <v>1.3</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G53" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="H53" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="I53" t="n">
         <v>1.01</v>
@@ -6263,10 +6263,10 @@
         <v>4.75</v>
       </c>
       <c r="M53" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="N53" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="O53" t="n">
         <v>1.25</v>
@@ -6290,10 +6290,10 @@
         <v>4.1</v>
       </c>
       <c r="V53" t="n">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="W53" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="X53" t="n">
         <v>2.35</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="G54" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="H54" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I54" t="n">
         <v>1.1</v>
@@ -6373,10 +6373,10 @@
         <v>2.45</v>
       </c>
       <c r="M54" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N54" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O54" t="n">
         <v>1.57</v>
@@ -6424,16 +6424,16 @@
         <v>3.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH54" t="n">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I55" t="n">
         <v>1.06</v>
@@ -6572,10 +6572,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G56" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H56" t="n">
         <v>1.33</v>
@@ -6593,10 +6593,10 @@
         <v>3.75</v>
       </c>
       <c r="M56" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="N56" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="O56" t="n">
         <v>1.33</v>

--- a/Jogos_do_Dia/2023-01-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>3.6</v>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="N2" t="n">
         <v>2.1</v>
@@ -742,10 +742,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
@@ -766,7 +766,7 @@
         <v>1.57</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -814,7 +814,7 @@
         <v>2.55</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE3" t="n">
         <v>1.21</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -873,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="N4" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -983,10 +983,10 @@
         <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="N5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1034,7 +1034,7 @@
         <v>2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE5" t="n">
         <v>1.29</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1093,10 +1093,10 @@
         <v>2.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N6" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>1.01</v>
@@ -1203,10 +1203,10 @@
         <v>4.32</v>
       </c>
       <c r="M7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="N7" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1364,7 +1364,7 @@
         <v>5.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE8" t="n">
         <v>1.39</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
         <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1423,10 +1423,10 @@
         <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1515,10 +1515,10 @@
         <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>3.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="N10" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
         <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
         <v>1.06</v>
@@ -1643,10 +1643,10 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="N11" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -1694,10 +1694,10 @@
         <v>4.45</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF11" t="n">
         <v>1.4</v>
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H12" t="n">
         <v>1.22</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="G13" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
         <v>1.01</v>
@@ -1863,10 +1863,10 @@
         <v>4.95</v>
       </c>
       <c r="M13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="N13" t="n">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="I14" t="n">
         <v>1.01</v>
@@ -1973,10 +1973,10 @@
         <v>4.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="N14" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2193,10 +2193,10 @@
         <v>3.22</v>
       </c>
       <c r="M16" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="N16" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="O16" t="n">
         <v>1.39</v>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="H17" t="n">
         <v>26</v>
@@ -2303,10 +2303,10 @@
         <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.17</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
         <v>3.1</v>
@@ -2413,10 +2413,10 @@
         <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="N18" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="I19" t="n">
         <v>1.05</v>
@@ -2523,10 +2523,10 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="N19" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="O19" t="n">
         <v>1.37</v>
@@ -2574,7 +2574,7 @@
         <v>2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE19" t="n">
         <v>1.26</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H20" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I20" t="n">
         <v>1.03</v>
@@ -2633,10 +2633,10 @@
         <v>3.8</v>
       </c>
       <c r="M20" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="N20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2743,7 +2743,7 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
         <v>1.75</v>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
         <v>3.5</v>
@@ -2853,7 +2853,7 @@
         <v>3.2</v>
       </c>
       <c r="M22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
         <v>1.75</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G23" t="n">
         <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
         <v>1.04</v>
@@ -2963,10 +2963,10 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3.1</v>
       </c>
       <c r="M24" t="n">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="N24" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="O24" t="n">
         <v>1.42</v>
@@ -3275,10 +3275,10 @@
         <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
         <v>1.05</v>
@@ -3293,10 +3293,10 @@
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
         <v>1.05</v>
@@ -3403,10 +3403,10 @@
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="N27" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="I28" t="n">
         <v>1.07</v>
@@ -3513,10 +3513,10 @@
         <v>2.8</v>
       </c>
       <c r="M28" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="N28" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
         <v>3.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="I29" t="n">
         <v>1.07</v>
@@ -3623,10 +3623,10 @@
         <v>2.8</v>
       </c>
       <c r="M29" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N29" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
         <v>1.08</v>
@@ -3736,7 +3736,7 @@
         <v>2.3</v>
       </c>
       <c r="N30" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="O30" t="n">
         <v>1.5</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="I31" t="n">
         <v>1.08</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I32" t="n">
         <v>1.1</v>
@@ -3947,16 +3947,16 @@
         <v>5.95</v>
       </c>
       <c r="K32" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="L32" t="n">
         <v>2.3</v>
       </c>
       <c r="M32" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="N32" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="O32" t="n">
         <v>1.62</v>
@@ -4016,7 +4016,7 @@
         <v>2.4</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="33">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G33" t="n">
         <v>3.75</v>
@@ -4066,7 +4066,7 @@
         <v>1.68</v>
       </c>
       <c r="N33" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O33" t="n">
         <v>1.29</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I34" t="n">
         <v>1.03</v>
@@ -4173,10 +4173,10 @@
         <v>4.17</v>
       </c>
       <c r="M34" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="N34" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="O34" t="n">
         <v>1.33</v>
@@ -4224,7 +4224,7 @@
         <v>2.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE34" t="n">
         <v>1.32</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G35" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
         <v>1.06</v>
@@ -4283,10 +4283,10 @@
         <v>3.1</v>
       </c>
       <c r="M35" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="N35" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="O35" t="n">
         <v>1.44</v>
@@ -4378,7 +4378,7 @@
         <v>3.2</v>
       </c>
       <c r="H36" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="I36" t="n">
         <v>1.07</v>
@@ -4393,10 +4393,10 @@
         <v>2.92</v>
       </c>
       <c r="M36" t="n">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="N36" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="O36" t="n">
         <v>1.44</v>
@@ -4435,7 +4435,7 @@
         <v>2.77</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB36" t="n">
         <v>7.9</v>
@@ -4444,7 +4444,7 @@
         <v>2.47</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE36" t="n">
         <v>1.3</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="I37" t="n">
         <v>1.06</v>
@@ -4503,10 +4503,10 @@
         <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="N37" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
@@ -4554,7 +4554,7 @@
         <v>3.35</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE37" t="n">
         <v>1.33</v>
@@ -4676,7 +4676,7 @@
         <v>2.9</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="39">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G39" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="I39" t="n">
         <v>1.04</v>
@@ -4723,10 +4723,10 @@
         <v>4.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="N39" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O39" t="n">
         <v>1.35</v>
@@ -4815,10 +4815,10 @@
         <v>1.75</v>
       </c>
       <c r="G40" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H40" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I40" t="n">
         <v>1.04</v>
@@ -4833,10 +4833,10 @@
         <v>3.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="N40" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -5006,7 +5006,7 @@
         <v>2.7</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="42">
@@ -5047,10 +5047,10 @@
         <v>7.5</v>
       </c>
       <c r="K42" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="L42" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="M42" t="n">
         <v>2.08</v>
@@ -5104,7 +5104,7 @@
         <v>2.38</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE42" t="n">
         <v>1.53</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I43" t="n">
         <v>1.03</v>
@@ -5163,7 +5163,7 @@
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N43" t="n">
         <v>2</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G44" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="M44" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="N44" t="n">
         <v>2.2</v>
@@ -5291,13 +5291,13 @@
         <v>2.05</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="V44" t="n">
         <v>1.5</v>
@@ -5318,25 +5318,25 @@
         <v>1.36</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC44" t="n">
         <v>3.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="45">
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="I45" t="n">
         <v>1.12</v>
@@ -5377,16 +5377,16 @@
         <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L45" t="n">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="M45" t="n">
-        <v>2.54</v>
+        <v>2.75</v>
       </c>
       <c r="N45" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="O45" t="n">
         <v>1.62</v>
@@ -5443,10 +5443,10 @@
         <v>2.38</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="46">
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="G46" t="n">
         <v>3.2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="I46" t="n">
         <v>1.09</v>
@@ -5493,10 +5493,10 @@
         <v>2.8</v>
       </c>
       <c r="M46" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N46" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="O46" t="n">
         <v>1.5</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H47" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="I47" t="n">
         <v>1.06</v>
@@ -5603,10 +5603,10 @@
         <v>3.2</v>
       </c>
       <c r="M47" t="n">
-        <v>1.77</v>
+        <v>2.07</v>
       </c>
       <c r="N47" t="n">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="O47" t="n">
         <v>1.44</v>
@@ -5666,7 +5666,7 @@
         <v>3.3</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="48">
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G48" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I48" t="n">
         <v>1.02</v>
@@ -5713,10 +5713,10 @@
         <v>4.45</v>
       </c>
       <c r="M48" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="N48" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="O48" t="n">
         <v>1.29</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I49" t="n">
         <v>1.08</v>
@@ -5823,10 +5823,10 @@
         <v>2.7</v>
       </c>
       <c r="M49" t="n">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="N49" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O49" t="n">
         <v>1.5</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="G50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I50" t="n">
         <v>1.03</v>
@@ -5933,10 +5933,10 @@
         <v>3.6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="N50" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
         <v>1.36</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G51" t="n">
         <v>3.4</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
         <v>1.05</v>
@@ -6043,7 +6043,7 @@
         <v>3.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="N51" t="n">
         <v>2</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H52" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="I52" t="n">
         <v>1.03</v>
@@ -6153,10 +6153,10 @@
         <v>4.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="N52" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O52" t="n">
         <v>1.3</v>
@@ -6245,10 +6245,10 @@
         <v>1.25</v>
       </c>
       <c r="G53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I53" t="n">
         <v>1.01</v>
@@ -6263,10 +6263,10 @@
         <v>4.75</v>
       </c>
       <c r="M53" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="N53" t="n">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="O53" t="n">
         <v>1.25</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="G54" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I54" t="n">
         <v>1.1</v>
@@ -6367,16 +6367,16 @@
         <v>7</v>
       </c>
       <c r="K54" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L54" t="n">
         <v>2.45</v>
       </c>
       <c r="M54" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O54" t="n">
         <v>1.57</v>
@@ -6436,7 +6436,7 @@
         <v>2.63</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="55">
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G55" t="n">
         <v>3.3</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I55" t="n">
         <v>1.06</v>
@@ -6483,10 +6483,10 @@
         <v>3.3</v>
       </c>
       <c r="M55" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="N55" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O55" t="n">
         <v>1.4</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="G56" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H56" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="I56" t="n">
         <v>1.03</v>
@@ -6593,10 +6593,10 @@
         <v>3.75</v>
       </c>
       <c r="M56" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="N56" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="O56" t="n">
         <v>1.33</v>

--- a/Jogos_do_Dia/2023-01-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.18</v>
       </c>
       <c r="I2" t="n">
         <v>1.02</v>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="N2" t="n">
         <v>2.1</v>
@@ -680,10 +680,10 @@
         <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="W2" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="X2" t="n">
         <v>1.94</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="G3" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="I3" t="n">
         <v>1.02</v>
@@ -763,10 +763,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="N3" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -790,10 +790,10 @@
         <v>1.63</v>
       </c>
       <c r="V3" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="X3" t="n">
         <v>1.87</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>4.05</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -873,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="N4" t="n">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -900,10 +900,10 @@
         <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="W4" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X4" t="n">
         <v>2.04</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
         <v>1.06</v>
@@ -983,10 +983,10 @@
         <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="N5" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1010,10 +1010,10 @@
         <v>1.56</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="X5" t="n">
         <v>1.82</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
         <v>1.07</v>
@@ -1093,10 +1093,10 @@
         <v>2.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="N6" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1120,10 +1120,10 @@
         <v>1.47</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X6" t="n">
         <v>1.47</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
         <v>1.01</v>
@@ -1203,10 +1203,10 @@
         <v>4.32</v>
       </c>
       <c r="M7" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="N7" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="O7" t="n">
         <v>1.29</v>
@@ -1230,10 +1230,10 @@
         <v>1.48</v>
       </c>
       <c r="V7" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="X7" t="n">
         <v>1.61</v>
@@ -1295,10 +1295,10 @@
         <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
         <v>1.01</v>
@@ -1313,10 +1313,10 @@
         <v>3.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="N8" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1340,10 +1340,10 @@
         <v>2.9</v>
       </c>
       <c r="V8" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="W8" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
         <v>1.68</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
         <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="I9" t="n">
         <v>1.05</v>
@@ -1423,10 +1423,10 @@
         <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="N9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1450,7 +1450,7 @@
         <v>1.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>3.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="N10" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1560,10 +1560,10 @@
         <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>2.2</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="I11" t="n">
         <v>1.06</v>
@@ -1643,10 +1643,10 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -1670,10 +1670,10 @@
         <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
         <v>1.86</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="G12" t="n">
-        <v>5.75</v>
+        <v>6.8</v>
       </c>
       <c r="H12" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="I12" t="n">
         <v>1.01</v>
@@ -1753,10 +1753,10 @@
         <v>4.15</v>
       </c>
       <c r="M12" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="N12" t="n">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -1780,10 +1780,10 @@
         <v>1.18</v>
       </c>
       <c r="V12" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="W12" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
         <v>1.03</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>4.85</v>
       </c>
       <c r="I13" t="n">
         <v>1.01</v>
@@ -1890,10 +1890,10 @@
         <v>2.24</v>
       </c>
       <c r="V13" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X13" t="n">
         <v>1.32</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="I14" t="n">
         <v>1.01</v>
@@ -1976,7 +1976,7 @@
         <v>1.64</v>
       </c>
       <c r="N14" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>
@@ -2000,10 +2000,10 @@
         <v>1.54</v>
       </c>
       <c r="V14" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="W14" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="X14" t="n">
         <v>1.29</v>
@@ -2113,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="W15" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="X15" t="n">
         <v>2.62</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2193,10 +2193,10 @@
         <v>3.22</v>
       </c>
       <c r="M16" t="n">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="N16" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="O16" t="n">
         <v>1.39</v>
@@ -2220,10 +2220,10 @@
         <v>2.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="X16" t="n">
         <v>1.47</v>
@@ -2285,10 +2285,10 @@
         <v>1.07</v>
       </c>
       <c r="G17" t="n">
-        <v>11.5</v>
+        <v>9.1</v>
       </c>
       <c r="H17" t="n">
-        <v>26</v>
+        <v>23.75</v>
       </c>
       <c r="I17" t="n">
         <v>1.02</v>
@@ -2303,10 +2303,10 @@
         <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.23</v>
       </c>
       <c r="O17" t="n">
         <v>1.17</v>
@@ -2333,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="X17" t="n">
         <v>2.62</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2413,10 +2413,10 @@
         <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="N18" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2440,10 +2440,10 @@
         <v>1.5</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="W18" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="X18" t="n">
         <v>1.13</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
         <v>1.05</v>
@@ -2523,10 +2523,10 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="N19" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="O19" t="n">
         <v>1.37</v>
@@ -2550,10 +2550,10 @@
         <v>1.44</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X19" t="n">
         <v>1.38</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I20" t="n">
         <v>1.03</v>
@@ -2633,10 +2633,10 @@
         <v>3.8</v>
       </c>
       <c r="M20" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="N20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
@@ -2660,10 +2660,10 @@
         <v>1.47</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
         <v>1.83</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2743,10 +2743,10 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O21" t="n">
         <v>1.39</v>
@@ -2770,10 +2770,10 @@
         <v>1.38</v>
       </c>
       <c r="V21" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="X21" t="n">
         <v>1.3</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3.2</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -2880,10 +2880,10 @@
         <v>1.85</v>
       </c>
       <c r="V22" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="W22" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="X22" t="n">
         <v>1.52</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
         <v>1.04</v>
@@ -2963,10 +2963,10 @@
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
@@ -2990,10 +2990,10 @@
         <v>1.83</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="W23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X23" t="n">
         <v>1.54</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3.1</v>
       </c>
       <c r="M24" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="N24" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="O24" t="n">
         <v>1.42</v>
@@ -3100,10 +3100,10 @@
         <v>1.52</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="X24" t="n">
         <v>1.33</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
         <v>1.05</v>
@@ -3293,10 +3293,10 @@
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="N26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -3320,10 +3320,10 @@
         <v>1.75</v>
       </c>
       <c r="V26" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="X26" t="n">
         <v>1.56</v>
@@ -3385,10 +3385,10 @@
         <v>1.62</v>
       </c>
       <c r="G27" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I27" t="n">
         <v>1.05</v>
@@ -3403,10 +3403,10 @@
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="N27" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3430,10 +3430,10 @@
         <v>2.18</v>
       </c>
       <c r="V27" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="W27" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="X27" t="n">
         <v>1.61</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G28" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
         <v>1.07</v>
@@ -3513,10 +3513,10 @@
         <v>2.8</v>
       </c>
       <c r="M28" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -3540,10 +3540,10 @@
         <v>1.95</v>
       </c>
       <c r="V28" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="X28" t="n">
         <v>1.53</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="I29" t="n">
         <v>1.07</v>
@@ -3623,10 +3623,10 @@
         <v>2.8</v>
       </c>
       <c r="M29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N29" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3650,10 +3650,10 @@
         <v>1.4</v>
       </c>
       <c r="V29" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="W29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X29" t="n">
         <v>1.27</v>
@@ -3715,10 +3715,10 @@
         <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
         <v>1.08</v>
@@ -3736,7 +3736,7 @@
         <v>2.3</v>
       </c>
       <c r="N30" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="O30" t="n">
         <v>1.5</v>
@@ -3760,10 +3760,10 @@
         <v>1.73</v>
       </c>
       <c r="V30" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="W30" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="X30" t="n">
         <v>1.42</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H31" t="n">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="I31" t="n">
         <v>1.08</v>
@@ -3843,10 +3843,10 @@
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="N31" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
@@ -3870,10 +3870,10 @@
         <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="W31" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X31" t="n">
         <v>1.21</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="G32" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
         <v>1.1</v>
@@ -3953,10 +3953,10 @@
         <v>2.3</v>
       </c>
       <c r="M32" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="N32" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O32" t="n">
         <v>1.62</v>
@@ -3980,10 +3980,10 @@
         <v>1.65</v>
       </c>
       <c r="V32" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="X32" t="n">
         <v>1.93</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I33" t="n">
         <v>1.02</v>
@@ -4066,7 +4066,7 @@
         <v>1.68</v>
       </c>
       <c r="N33" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O33" t="n">
         <v>1.29</v>
@@ -4090,10 +4090,10 @@
         <v>1.29</v>
       </c>
       <c r="V33" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="W33" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="X33" t="n">
         <v>1.84</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I34" t="n">
         <v>1.03</v>
@@ -4173,10 +4173,10 @@
         <v>4.17</v>
       </c>
       <c r="M34" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="N34" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="O34" t="n">
         <v>1.33</v>
@@ -4200,10 +4200,10 @@
         <v>1.53</v>
       </c>
       <c r="V34" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="X34" t="n">
         <v>1.71</v>
@@ -4265,10 +4265,10 @@
         <v>2.2</v>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I35" t="n">
         <v>1.06</v>
@@ -4283,10 +4283,10 @@
         <v>3.1</v>
       </c>
       <c r="M35" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N35" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="O35" t="n">
         <v>1.44</v>
@@ -4310,10 +4310,10 @@
         <v>1.67</v>
       </c>
       <c r="V35" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="W35" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="X35" t="n">
         <v>1.18</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G36" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
         <v>1.07</v>
@@ -4393,10 +4393,10 @@
         <v>2.92</v>
       </c>
       <c r="M36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N36" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="O36" t="n">
         <v>1.44</v>
@@ -4420,10 +4420,10 @@
         <v>1.64</v>
       </c>
       <c r="V36" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="W36" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="X36" t="n">
         <v>1.4</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
         <v>1.06</v>
@@ -4503,10 +4503,10 @@
         <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="N37" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
@@ -4530,10 +4530,10 @@
         <v>1.98</v>
       </c>
       <c r="V37" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="W37" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="X37" t="n">
         <v>1.88</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="G38" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
         <v>1.09</v>
@@ -4613,7 +4613,7 @@
         <v>2.7</v>
       </c>
       <c r="M38" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="N38" t="n">
         <v>1.53</v>
@@ -4640,10 +4640,10 @@
         <v>1.55</v>
       </c>
       <c r="V38" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="W38" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X38" t="n">
         <v>1.17</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="G39" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H39" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I39" t="n">
         <v>1.04</v>
@@ -4723,10 +4723,10 @@
         <v>4.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="N39" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="O39" t="n">
         <v>1.35</v>
@@ -4750,10 +4750,10 @@
         <v>2.4</v>
       </c>
       <c r="V39" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="W39" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
         <v>2.32</v>
@@ -4815,10 +4815,10 @@
         <v>1.75</v>
       </c>
       <c r="G40" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="H40" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I40" t="n">
         <v>1.04</v>
@@ -4833,10 +4833,10 @@
         <v>3.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="N40" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -4860,10 +4860,10 @@
         <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="W40" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X40" t="n">
         <v>1.89</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="G41" t="n">
-        <v>2.75</v>
+        <v>2.86</v>
       </c>
       <c r="H41" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I41" t="n">
         <v>1.07</v>
@@ -4943,10 +4943,10 @@
         <v>2.9</v>
       </c>
       <c r="M41" t="n">
-        <v>2.23</v>
+        <v>2.04</v>
       </c>
       <c r="N41" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O41" t="n">
         <v>1.48</v>
@@ -4970,10 +4970,10 @@
         <v>1.64</v>
       </c>
       <c r="V41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W41" t="n">
         <v>1</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.2</v>
       </c>
       <c r="X41" t="n">
         <v>1.64</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="H42" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="I42" t="n">
         <v>1.06</v>
@@ -5053,10 +5053,10 @@
         <v>2.4</v>
       </c>
       <c r="M42" t="n">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="N42" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="O42" t="n">
         <v>1.45</v>
@@ -5080,10 +5080,10 @@
         <v>1.36</v>
       </c>
       <c r="V42" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="W42" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="X42" t="n">
         <v>1.57</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G43" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H43" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I43" t="n">
         <v>1.03</v>
@@ -5163,7 +5163,7 @@
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N43" t="n">
         <v>2</v>
@@ -5190,10 +5190,10 @@
         <v>1.74</v>
       </c>
       <c r="V43" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="W43" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="X43" t="n">
         <v>1.84</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I44" t="n">
         <v>1.01</v>
@@ -5273,7 +5273,7 @@
         <v>3.9</v>
       </c>
       <c r="M44" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="N44" t="n">
         <v>2.2</v>
@@ -5300,10 +5300,10 @@
         <v>1.99</v>
       </c>
       <c r="V44" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W44" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="X44" t="n">
         <v>1.61</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="G45" t="n">
         <v>2.8</v>
       </c>
       <c r="H45" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="I45" t="n">
         <v>1.12</v>
@@ -5377,16 +5377,16 @@
         <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="L45" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="M45" t="n">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="N45" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O45" t="n">
         <v>1.62</v>
@@ -5410,10 +5410,10 @@
         <v>1.4</v>
       </c>
       <c r="V45" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W45" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="X45" t="n">
         <v>1.55</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="I46" t="n">
         <v>1.09</v>
@@ -5493,10 +5493,10 @@
         <v>2.8</v>
       </c>
       <c r="M46" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N46" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O46" t="n">
         <v>1.5</v>
@@ -5520,10 +5520,10 @@
         <v>1.78</v>
       </c>
       <c r="V46" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="W46" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="X46" t="n">
         <v>1.31</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G47" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="H47" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="I47" t="n">
         <v>1.06</v>
@@ -5603,10 +5603,10 @@
         <v>3.2</v>
       </c>
       <c r="M47" t="n">
-        <v>2.07</v>
+        <v>1.77</v>
       </c>
       <c r="N47" t="n">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="O47" t="n">
         <v>1.44</v>
@@ -5630,10 +5630,10 @@
         <v>1.09</v>
       </c>
       <c r="V47" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="W47" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="X47" t="n">
         <v>1.22</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="G48" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="H48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
         <v>1.02</v>
@@ -5713,10 +5713,10 @@
         <v>4.45</v>
       </c>
       <c r="M48" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="N48" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="O48" t="n">
         <v>1.29</v>
@@ -5740,10 +5740,10 @@
         <v>2.35</v>
       </c>
       <c r="V48" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="W48" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X48" t="n">
         <v>1.98</v>
@@ -5805,10 +5805,10 @@
         <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
         <v>1.08</v>
@@ -5823,10 +5823,10 @@
         <v>2.7</v>
       </c>
       <c r="M49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N49" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O49" t="n">
         <v>1.5</v>
@@ -5850,10 +5850,10 @@
         <v>1.73</v>
       </c>
       <c r="V49" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="W49" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="X49" t="n">
         <v>1.54</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="G50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="I50" t="n">
         <v>1.03</v>
@@ -5933,10 +5933,10 @@
         <v>3.6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O50" t="n">
         <v>1.36</v>
@@ -6028,7 +6028,7 @@
         <v>3.4</v>
       </c>
       <c r="H51" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>1.05</v>
@@ -6043,7 +6043,7 @@
         <v>3.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N51" t="n">
         <v>2</v>
@@ -6135,10 +6135,10 @@
         <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H52" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="I52" t="n">
         <v>1.03</v>
@@ -6153,10 +6153,10 @@
         <v>4.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="N52" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O52" t="n">
         <v>1.3</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H53" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I53" t="n">
         <v>1.01</v>
@@ -6263,10 +6263,10 @@
         <v>4.75</v>
       </c>
       <c r="M53" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="N53" t="n">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="O53" t="n">
         <v>1.25</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="I54" t="n">
         <v>1.1</v>
@@ -6370,13 +6370,13 @@
         <v>1.52</v>
       </c>
       <c r="L54" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="M54" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="N54" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O54" t="n">
         <v>1.57</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G55" t="n">
         <v>3.3</v>
       </c>
       <c r="H55" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
         <v>1.06</v>
@@ -6483,10 +6483,10 @@
         <v>3.3</v>
       </c>
       <c r="M55" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="N55" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="O55" t="n">
         <v>1.4</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="G56" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H56" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="I56" t="n">
         <v>1.03</v>
@@ -6593,7 +6593,7 @@
         <v>3.75</v>
       </c>
       <c r="M56" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="N56" t="n">
         <v>1.96</v>
